--- a/assets/skinlist_from_library.xlsx
+++ b/assets/skinlist_from_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcr\Music\Yamaha THR10C\Tonex Pedal\TonexOneController\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24218B15-6794-4CE7-BB73-ADD622F0AFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5166D6D5-88C6-4CC8-8734-BD4DDE6CCF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C63A52CE-BCA1-4093-9D3A-570BA826C4A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="174">
   <si>
     <t>AC30</t>
   </si>
@@ -312,9 +312,6 @@
   </si>
   <si>
     <t>DRIVE</t>
-  </si>
-  <si>
-    <t>VX TB50 BR Crunch BAL DI</t>
   </si>
   <si>
     <t>UR Matchless C 30 Ch1 +</t>
@@ -567,7 +564,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,6 +573,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS Shell Dlg 2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="MS Shell Dlg 2"/>
@@ -622,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -631,6 +634,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,7 +974,7 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1029,7 @@
         <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -1037,7 +1043,7 @@
         <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -1051,7 +1057,7 @@
         <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -1065,7 +1071,7 @@
         <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2">
         <v>40</v>
@@ -1079,7 +1085,7 @@
         <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2">
         <v>57</v>
@@ -1093,14 +1099,14 @@
         <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1118,10 +1124,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
@@ -1146,10 +1152,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
@@ -1163,7 +1169,7 @@
         <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2">
         <v>31</v>
@@ -1174,10 +1180,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D15" s="2">
         <v>10</v>
@@ -1188,10 +1194,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="2">
         <v>24</v>
@@ -1202,10 +1208,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="2">
         <v>12</v>
@@ -1216,10 +1222,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1230,10 +1236,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D19" s="2">
         <v>20</v>
@@ -1247,7 +1253,7 @@
         <v>87</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="2">
         <v>5</v>
@@ -1261,7 +1267,7 @@
         <v>91</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="2">
         <v>41</v>
@@ -1275,7 +1281,7 @@
         <v>87</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="2">
         <v>12</v>
@@ -1289,7 +1295,7 @@
         <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -1303,7 +1309,7 @@
         <v>87</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="2">
         <v>23</v>
@@ -1317,7 +1323,7 @@
         <v>91</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" s="2">
         <v>7</v>
@@ -1331,7 +1337,7 @@
         <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D26" s="2">
         <v>80</v>
@@ -1345,35 +1351,35 @@
         <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D27" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D28" s="2">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D29" s="2">
         <v>122</v>
@@ -1387,21 +1393,21 @@
         <v>89</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D30" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" s="2">
         <v>76</v>
@@ -1412,10 +1418,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
@@ -1426,10 +1432,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D33" s="2">
         <v>2</v>
@@ -1440,10 +1446,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D34" s="2">
         <v>7</v>
@@ -1454,10 +1460,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D35" s="2">
         <v>2</v>
@@ -1468,10 +1474,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D36" s="2">
         <v>10</v>
@@ -1482,10 +1488,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D37" s="2">
         <v>11</v>
@@ -1496,10 +1502,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38" s="2">
         <v>2</v>
@@ -1510,10 +1516,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="2">
         <v>19</v>
@@ -1524,24 +1530,24 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="2">
         <v>62</v>
@@ -1555,21 +1561,21 @@
         <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="2">
         <v>44</v>
@@ -1583,21 +1589,21 @@
         <v>91</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="2">
         <v>36</v>
@@ -1608,10 +1614,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
@@ -1625,7 +1631,7 @@
         <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D47" s="2">
         <v>28</v>
@@ -1636,10 +1642,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D48" s="2">
         <v>4</v>
@@ -1653,7 +1659,7 @@
         <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D49" s="2">
         <v>4</v>
@@ -1667,21 +1673,21 @@
         <v>87</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D50" s="2">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D51" s="2">
         <v>232</v>
@@ -1695,7 +1701,7 @@
         <v>89</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D52" s="2">
         <v>12</v>
@@ -1706,10 +1712,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D53" s="2">
         <v>29</v>
@@ -1720,10 +1726,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D54" s="2">
         <v>4</v>
@@ -1734,10 +1740,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D55" s="2">
         <v>51</v>
@@ -1748,10 +1754,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D56" s="2">
         <v>12</v>
@@ -1762,10 +1768,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D57" s="2">
         <v>8</v>
@@ -1776,10 +1782,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D58" s="2">
         <v>46</v>
@@ -1790,10 +1796,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D59" s="2">
         <v>4</v>
@@ -1804,10 +1810,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D60" s="2">
         <v>6</v>
@@ -1818,10 +1824,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D61" s="2">
         <v>3</v>
@@ -1832,10 +1838,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D62" s="2">
         <v>3</v>
@@ -1846,10 +1852,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D63" s="2">
         <v>16</v>
@@ -1860,10 +1866,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D64" s="2">
         <v>7</v>
@@ -1877,7 +1883,7 @@
         <v>87</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D65" s="2">
         <v>3</v>
@@ -1891,7 +1897,7 @@
         <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D66" s="2">
         <v>27</v>
@@ -1905,7 +1911,7 @@
         <v>87</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D67" s="2">
         <v>53</v>
@@ -1919,7 +1925,7 @@
         <v>89</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D68" s="2">
         <v>7</v>
@@ -1933,7 +1939,7 @@
         <v>89</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D69" s="2">
         <v>44</v>
@@ -1947,7 +1953,7 @@
         <v>87</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D70" s="2">
         <v>26</v>
@@ -1961,7 +1967,7 @@
         <v>87</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D71" s="2">
         <v>25</v>
@@ -1989,7 +1995,7 @@
         <v>87</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D73" s="2">
         <v>82</v>
@@ -2003,7 +2009,7 @@
         <v>89</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D74" s="2">
         <v>17</v>
@@ -2014,10 +2020,10 @@
         <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D75" s="2">
         <v>4</v>
@@ -2028,10 +2034,10 @@
         <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D76" s="2">
         <v>1</v>
@@ -2042,10 +2048,10 @@
         <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D77" s="2">
         <v>3</v>
@@ -2056,10 +2062,10 @@
         <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D78" s="2">
         <v>16</v>
@@ -2073,7 +2079,7 @@
         <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D79" s="2">
         <v>44</v>
@@ -2087,21 +2093,21 @@
         <v>87</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D80" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D81" s="2">
         <v>42</v>
@@ -2115,7 +2121,7 @@
         <v>87</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D82" s="2">
         <v>16</v>
@@ -2129,7 +2135,7 @@
         <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D83" s="2">
         <v>11</v>
@@ -2143,7 +2149,7 @@
         <v>89</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D84" s="2">
         <v>79</v>
@@ -2157,7 +2163,7 @@
         <v>89</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D85" s="2">
         <v>16</v>
@@ -2168,10 +2174,10 @@
         <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D86" s="2">
         <v>12</v>
